--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130789503</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>130789515</v>
       </c>
       <c r="B3" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>130752197</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>130752899</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>130751615</v>
       </c>
       <c r="B6" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130789501</v>
+        <v>130752192</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1240,34 +1240,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490713</v>
+        <v>490715</v>
       </c>
       <c r="R7" t="n">
-        <v>6763507</v>
+        <v>6763290</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,7 +1304,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1309,7 +1314,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1318,29 +1323,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789509</v>
+        <v>130789501</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1372,10 +1376,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490693</v>
+        <v>490713</v>
       </c>
       <c r="R8" t="n">
-        <v>6763417</v>
+        <v>6763507</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1411,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1421,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1445,10 +1449,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130752192</v>
+        <v>130789509</v>
       </c>
       <c r="B9" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1456,39 +1460,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490715</v>
+        <v>490693</v>
       </c>
       <c r="R9" t="n">
-        <v>6763290</v>
+        <v>6763417</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1520,7 +1519,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1530,7 +1529,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1539,28 +1538,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130752527</v>
+        <v>130789462</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1568,34 +1568,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490673</v>
+        <v>490705</v>
       </c>
       <c r="R10" t="n">
-        <v>6763435</v>
+        <v>6763439</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1627,7 +1635,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1637,7 +1645,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Äldre ring hack på tall</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1652,22 +1665,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789462</v>
+        <v>130752527</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1675,42 +1688,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490705</v>
+        <v>490673</v>
       </c>
       <c r="R11" t="n">
-        <v>6763439</v>
+        <v>6763435</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1742,7 +1747,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1752,12 +1757,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Äldre ring hack på tall</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1772,12 +1772,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
@@ -1787,7 +1787,7 @@
         <v>130751852</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>130789504</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130751762</v>
+        <v>130789505</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2030,14 +2030,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>490779</v>
+        <v>490697</v>
       </c>
       <c r="R14" t="n">
-        <v>6763206</v>
+        <v>6763451</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2088,28 +2088,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130789505</v>
+        <v>130751762</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2137,14 +2138,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>490697</v>
+        <v>490779</v>
       </c>
       <c r="R15" t="n">
-        <v>6763451</v>
+        <v>6763206</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2176,7 +2177,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2186,7 +2187,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2195,19 +2196,18 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2217,7 +2217,7 @@
         <v>130789510</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>130753551</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>130789514</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>130752453</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>130789512</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>130752039</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130789502</v>
+        <v>130753344</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2870,34 +2870,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490712</v>
+        <v>490761</v>
       </c>
       <c r="R22" t="n">
-        <v>6763506</v>
+        <v>6763503</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2929,7 +2934,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2939,7 +2944,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>3 Bilder</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2948,29 +2958,28 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130753344</v>
+        <v>130789502</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2978,39 +2987,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>490761</v>
+        <v>490712</v>
       </c>
       <c r="R23" t="n">
-        <v>6763503</v>
+        <v>6763506</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3042,7 +3046,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3052,12 +3056,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>3 Bilder</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3066,18 +3065,19 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3087,7 +3087,7 @@
         <v>130752740</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>130752001</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>130789507</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>130752569</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>130751938</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>130789461</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>130789506</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>130752874</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>130752842</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>130789513</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>130753055</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>130789508</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>130753455</v>
       </c>
       <c r="B37" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>130789511</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>130807229</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>130807313</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>130812290</v>
       </c>
       <c r="B41" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130815610</v>
+        <v>130815695</v>
       </c>
       <c r="B42" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5079,37 +5079,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490831</v>
+        <v>490815</v>
       </c>
       <c r="R42" t="n">
-        <v>6763410</v>
+        <v>6763446</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5153,7 +5158,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5180,10 +5185,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130807544</v>
+        <v>130815610</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5211,14 +5216,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>491106</v>
+        <v>490831</v>
       </c>
       <c r="R43" t="n">
-        <v>6763223</v>
+        <v>6763410</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5265,7 +5270,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2 bilder på gran vid basväg samt tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5292,10 +5297,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130815695</v>
+        <v>130807544</v>
       </c>
       <c r="B44" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5303,42 +5308,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490815</v>
+        <v>491106</v>
       </c>
       <c r="R44" t="n">
-        <v>6763446</v>
+        <v>6763223</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>3 bilder på tall</t>
+          <t>2 bilder på gran vid basväg samt tall</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5409,10 +5409,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130815959</v>
+        <v>130807362</v>
       </c>
       <c r="B45" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5420,39 +5420,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>490727</v>
+        <v>490990</v>
       </c>
       <c r="R45" t="n">
-        <v>6763422</v>
+        <v>6763195</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5495,11 +5490,6 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5526,10 +5516,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130807362</v>
+        <v>130815959</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5537,34 +5527,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490990</v>
+        <v>490727</v>
       </c>
       <c r="R46" t="n">
-        <v>6763195</v>
+        <v>6763422</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5607,6 +5602,11 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5636,7 +5636,7 @@
         <v>130815712</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130815999</v>
+        <v>130814260</v>
       </c>
       <c r="B48" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5751,37 +5751,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490722</v>
+        <v>490982</v>
       </c>
       <c r="R48" t="n">
-        <v>6763404</v>
+        <v>6763304</v>
       </c>
       <c r="S48" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5825,7 +5830,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder tall</t>
+          <t>4 bilder på tall</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5852,10 +5857,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130814260</v>
+        <v>130815999</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5863,42 +5868,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490982</v>
+        <v>490722</v>
       </c>
       <c r="R49" t="n">
-        <v>6763304</v>
+        <v>6763404</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>4 bilder på tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder tall</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5972,7 +5972,7 @@
         <v>130811340</v>
       </c>
       <c r="B50" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>130815884</v>
       </c>
       <c r="B51" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>130813058</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -1557,10 +1557,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130789462</v>
+        <v>130752527</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1568,42 +1568,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490705</v>
+        <v>490673</v>
       </c>
       <c r="R10" t="n">
-        <v>6763439</v>
+        <v>6763435</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1635,7 +1627,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1645,12 +1637,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Äldre ring hack på tall</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1665,22 +1652,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130752527</v>
+        <v>130789462</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1688,34 +1675,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490673</v>
+        <v>490705</v>
       </c>
       <c r="R11" t="n">
-        <v>6763435</v>
+        <v>6763439</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1747,7 +1742,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1757,7 +1752,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Äldre ring hack på tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1772,12 +1772,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130789503</v>
+        <v>130789515</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>490685</v>
+        <v>490723</v>
       </c>
       <c r="R2" t="n">
-        <v>6763486</v>
+        <v>6763501</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +768,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -769,7 +777,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -788,10 +795,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130789515</v>
+        <v>130789503</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,42 +806,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490723</v>
+        <v>490685</v>
       </c>
       <c r="R3" t="n">
-        <v>6763501</v>
+        <v>6763486</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +865,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -876,7 +875,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -885,6 +884,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130752197</v>
+        <v>130752899</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -934,14 +934,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490715</v>
+        <v>490652</v>
       </c>
       <c r="R4" t="n">
-        <v>6763290</v>
+        <v>6763503</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130752899</v>
+        <v>130752197</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1041,14 +1041,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490652</v>
+        <v>490715</v>
       </c>
       <c r="R5" t="n">
-        <v>6763503</v>
+        <v>6763290</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789501</v>
+        <v>130789509</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490713</v>
+        <v>490693</v>
       </c>
       <c r="R8" t="n">
-        <v>6763507</v>
+        <v>6763417</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1449,7 +1449,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130789509</v>
+        <v>130789501</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490693</v>
+        <v>490713</v>
       </c>
       <c r="R9" t="n">
-        <v>6763417</v>
+        <v>6763507</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1784,7 +1784,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130751852</v>
+        <v>130789504</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1815,14 +1815,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490760</v>
+        <v>490686</v>
       </c>
       <c r="R12" t="n">
-        <v>6763211</v>
+        <v>6763480</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1873,25 +1873,26 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130789504</v>
+        <v>130751762</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1922,14 +1923,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>490686</v>
+        <v>490779</v>
       </c>
       <c r="R13" t="n">
-        <v>6763480</v>
+        <v>6763206</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1961,7 +1962,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1971,7 +1972,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1980,26 +1981,25 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130789505</v>
+        <v>130751852</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2030,14 +2030,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>490697</v>
+        <v>490760</v>
       </c>
       <c r="R14" t="n">
-        <v>6763451</v>
+        <v>6763211</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2088,26 +2088,25 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130751762</v>
+        <v>130789505</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2138,14 +2137,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>490779</v>
+        <v>490697</v>
       </c>
       <c r="R15" t="n">
-        <v>6763206</v>
+        <v>6763451</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2177,7 +2176,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2187,7 +2186,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,18 +2195,19 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130789514</v>
+        <v>130752453</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490800</v>
+        <v>490682</v>
       </c>
       <c r="R18" t="n">
-        <v>6763195</v>
+        <v>6763392</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2518,26 +2518,25 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130752453</v>
+        <v>130789512</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2572,10 +2571,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490682</v>
+        <v>490686</v>
       </c>
       <c r="R19" t="n">
-        <v>6763392</v>
+        <v>6763382</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2607,7 +2606,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2617,7 +2616,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,25 +2625,26 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130789512</v>
+        <v>130789514</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2679,10 +2679,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490686</v>
+        <v>490800</v>
       </c>
       <c r="R20" t="n">
-        <v>6763382</v>
+        <v>6763195</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2859,10 +2859,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130753344</v>
+        <v>130789502</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2870,39 +2870,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490761</v>
+        <v>490712</v>
       </c>
       <c r="R22" t="n">
-        <v>6763503</v>
+        <v>6763506</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2934,7 +2929,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2944,12 +2939,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>3 Bilder</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2958,28 +2948,29 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130789502</v>
+        <v>130753344</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2987,34 +2978,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>490712</v>
+        <v>490761</v>
       </c>
       <c r="R23" t="n">
-        <v>6763506</v>
+        <v>6763503</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3046,7 +3042,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3056,7 +3052,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>3 Bilder</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3065,26 +3066,25 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130752740</v>
+        <v>130752001</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3115,14 +3115,14 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>490682</v>
+        <v>490746</v>
       </c>
       <c r="R24" t="n">
-        <v>6763461</v>
+        <v>6763219</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130752001</v>
+        <v>130752740</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3222,14 +3222,14 @@
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490746</v>
+        <v>490682</v>
       </c>
       <c r="R25" t="n">
-        <v>6763219</v>
+        <v>6763461</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130789513</v>
+        <v>130753055</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490777</v>
+        <v>490658</v>
       </c>
       <c r="R34" t="n">
-        <v>6763210</v>
+        <v>6763532</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4268,29 +4268,28 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130753055</v>
+        <v>130753455</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4298,34 +4297,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490658</v>
+        <v>490770</v>
       </c>
       <c r="R35" t="n">
-        <v>6763532</v>
+        <v>6763512</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4368,6 +4372,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Bild 4 till 6</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4502,10 +4511,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130753455</v>
+        <v>130789513</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4513,39 +4522,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490770</v>
+        <v>490777</v>
       </c>
       <c r="R37" t="n">
-        <v>6763512</v>
+        <v>6763210</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4577,7 +4581,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4587,12 +4591,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Bild 4 till 6</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4601,18 +4600,19 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130815695</v>
+        <v>130815610</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5079,42 +5079,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490815</v>
+        <v>490831</v>
       </c>
       <c r="R42" t="n">
-        <v>6763446</v>
+        <v>6763410</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5158,7 +5153,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>3 bilder på tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5185,7 +5180,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130815610</v>
+        <v>130807544</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5216,14 +5211,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490831</v>
+        <v>491106</v>
       </c>
       <c r="R43" t="n">
-        <v>6763410</v>
+        <v>6763223</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5270,7 +5265,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
+          <t>2 bilder på gran vid basväg samt tall</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5297,10 +5292,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130807544</v>
+        <v>130815695</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5308,37 +5303,42 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>491106</v>
+        <v>490815</v>
       </c>
       <c r="R44" t="n">
-        <v>6763223</v>
+        <v>6763446</v>
       </c>
       <c r="S44" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2 bilder på gran vid basväg samt tall</t>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD44" t="b">

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130789515</v>
+        <v>130789503</v>
       </c>
       <c r="B2" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,42 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>490723</v>
+        <v>490685</v>
       </c>
       <c r="R2" t="n">
-        <v>6763501</v>
+        <v>6763486</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,6 +769,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -795,10 +788,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130789503</v>
+        <v>130789515</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,34 +799,42 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490685</v>
+        <v>490723</v>
       </c>
       <c r="R3" t="n">
-        <v>6763486</v>
+        <v>6763501</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,7 +866,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -875,7 +876,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,7 +885,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130752192</v>
+        <v>130789501</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1240,39 +1240,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490715</v>
+        <v>490713</v>
       </c>
       <c r="R7" t="n">
-        <v>6763290</v>
+        <v>6763507</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1304,7 +1299,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1314,7 +1309,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1323,28 +1318,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789509</v>
+        <v>130752192</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1352,34 +1348,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490693</v>
+        <v>490715</v>
       </c>
       <c r="R8" t="n">
-        <v>6763417</v>
+        <v>6763290</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1411,7 +1412,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1421,7 +1422,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1430,26 +1431,25 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130789501</v>
+        <v>130789509</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490713</v>
+        <v>490693</v>
       </c>
       <c r="R9" t="n">
-        <v>6763507</v>
+        <v>6763417</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1784,7 +1784,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130789504</v>
+        <v>130751852</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1815,14 +1815,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490686</v>
+        <v>490760</v>
       </c>
       <c r="R12" t="n">
-        <v>6763480</v>
+        <v>6763211</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1873,19 +1873,18 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1999,7 +1998,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130751852</v>
+        <v>130789504</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2030,14 +2029,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>490760</v>
+        <v>490686</v>
       </c>
       <c r="R14" t="n">
-        <v>6763211</v>
+        <v>6763480</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2069,7 +2068,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2079,7 +2078,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2088,18 +2087,19 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130752453</v>
+        <v>130789512</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490682</v>
+        <v>490686</v>
       </c>
       <c r="R18" t="n">
-        <v>6763392</v>
+        <v>6763382</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2518,25 +2518,26 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130789512</v>
+        <v>130789514</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2571,10 +2572,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490686</v>
+        <v>490800</v>
       </c>
       <c r="R19" t="n">
-        <v>6763382</v>
+        <v>6763195</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2606,7 +2607,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2616,7 +2617,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2644,7 +2645,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130789514</v>
+        <v>130752453</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2679,10 +2680,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490800</v>
+        <v>490682</v>
       </c>
       <c r="R20" t="n">
-        <v>6763195</v>
+        <v>6763392</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2714,7 +2715,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2724,7 +2725,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,19 +2734,18 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130752001</v>
+        <v>130752740</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3115,14 +3115,14 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>490746</v>
+        <v>490682</v>
       </c>
       <c r="R24" t="n">
-        <v>6763219</v>
+        <v>6763461</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130752740</v>
+        <v>130789507</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490682</v>
+        <v>490706</v>
       </c>
       <c r="R25" t="n">
-        <v>6763461</v>
+        <v>6763438</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3280,25 +3280,26 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130789507</v>
+        <v>130752001</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3329,14 +3330,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490706</v>
+        <v>490746</v>
       </c>
       <c r="R26" t="n">
-        <v>6763438</v>
+        <v>6763219</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,7 +3369,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3378,7 +3379,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3387,26 +3388,25 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130752569</v>
+        <v>130751938</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3437,14 +3437,14 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490661</v>
+        <v>490749</v>
       </c>
       <c r="R27" t="n">
-        <v>6763445</v>
+        <v>6763201</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130751938</v>
+        <v>130752569</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3544,14 +3544,14 @@
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490749</v>
+        <v>490661</v>
       </c>
       <c r="R28" t="n">
-        <v>6763201</v>
+        <v>6763445</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130752874</v>
+        <v>130752842</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490655</v>
+        <v>490660</v>
       </c>
       <c r="R32" t="n">
-        <v>6763493</v>
+        <v>6763462</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130752842</v>
+        <v>130752874</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490660</v>
+        <v>490655</v>
       </c>
       <c r="R33" t="n">
-        <v>6763462</v>
+        <v>6763493</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130753055</v>
+        <v>130753455</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4190,34 +4190,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490658</v>
+        <v>490770</v>
       </c>
       <c r="R34" t="n">
-        <v>6763532</v>
+        <v>6763512</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4260,6 +4265,11 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Bild 4 till 6</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4286,10 +4296,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130753455</v>
+        <v>130753055</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4297,39 +4307,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490770</v>
+        <v>490658</v>
       </c>
       <c r="R35" t="n">
-        <v>6763512</v>
+        <v>6763532</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4372,11 +4377,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Bild 4 till 6</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4403,7 +4403,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130789508</v>
+        <v>130789513</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4438,10 +4438,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490700</v>
+        <v>490777</v>
       </c>
       <c r="R36" t="n">
-        <v>6763430</v>
+        <v>6763210</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4511,7 +4511,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130789513</v>
+        <v>130789508</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490777</v>
+        <v>490700</v>
       </c>
       <c r="R37" t="n">
-        <v>6763210</v>
+        <v>6763430</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5180,10 +5180,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130807544</v>
+        <v>130815695</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5191,37 +5191,42 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>491106</v>
+        <v>490815</v>
       </c>
       <c r="R43" t="n">
-        <v>6763223</v>
+        <v>6763446</v>
       </c>
       <c r="S43" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5265,7 +5270,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2 bilder på gran vid basväg samt tall</t>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5292,10 +5297,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130815695</v>
+        <v>130807544</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5303,42 +5308,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490815</v>
+        <v>491106</v>
       </c>
       <c r="R44" t="n">
-        <v>6763446</v>
+        <v>6763223</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>3 bilder på tall</t>
+          <t>2 bilder på gran vid basväg samt tall</t>
         </is>
       </c>
       <c r="AD44" t="b">

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -1337,10 +1337,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130752192</v>
+        <v>130789509</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1348,39 +1348,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490715</v>
+        <v>490693</v>
       </c>
       <c r="R8" t="n">
-        <v>6763290</v>
+        <v>6763417</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1412,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1422,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1431,28 +1426,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130789509</v>
+        <v>130752192</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,34 +1456,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490693</v>
+        <v>490715</v>
       </c>
       <c r="R9" t="n">
-        <v>6763417</v>
+        <v>6763290</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1519,7 +1520,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1529,7 +1530,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1538,19 +1539,18 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130751762</v>
+        <v>130789504</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1922,14 +1922,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>490779</v>
+        <v>490686</v>
       </c>
       <c r="R13" t="n">
-        <v>6763206</v>
+        <v>6763480</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1980,25 +1980,26 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130789504</v>
+        <v>130751762</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2029,14 +2030,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>490686</v>
+        <v>490779</v>
       </c>
       <c r="R14" t="n">
-        <v>6763480</v>
+        <v>6763206</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2068,7 +2069,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2078,7 +2079,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2087,19 +2088,18 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130789512</v>
+        <v>130752453</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490686</v>
+        <v>490682</v>
       </c>
       <c r="R18" t="n">
-        <v>6763382</v>
+        <v>6763392</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2518,19 +2518,18 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2645,7 +2644,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130752453</v>
+        <v>130789512</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2680,10 +2679,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490682</v>
+        <v>490686</v>
       </c>
       <c r="R20" t="n">
-        <v>6763392</v>
+        <v>6763382</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2715,7 +2714,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2725,7 +2724,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2734,18 +2733,19 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130751938</v>
+        <v>130752569</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3437,14 +3437,14 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490749</v>
+        <v>490661</v>
       </c>
       <c r="R27" t="n">
-        <v>6763201</v>
+        <v>6763445</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130752569</v>
+        <v>130751938</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3544,14 +3544,14 @@
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490661</v>
+        <v>490749</v>
       </c>
       <c r="R28" t="n">
-        <v>6763445</v>
+        <v>6763201</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,54 +3740,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130789466</v>
+        <v>130789506</v>
       </c>
       <c r="B30" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490710</v>
+        <v>490698</v>
       </c>
       <c r="R30" t="n">
-        <v>6763505</v>
+        <v>6763446</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3819,7 +3810,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3829,7 +3820,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3857,45 +3848,54 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130789506</v>
+        <v>130789466</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490698</v>
+        <v>490710</v>
       </c>
       <c r="R31" t="n">
-        <v>6763446</v>
+        <v>6763505</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3965,7 +3965,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130752842</v>
+        <v>130752874</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490660</v>
+        <v>490655</v>
       </c>
       <c r="R32" t="n">
-        <v>6763462</v>
+        <v>6763493</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130752874</v>
+        <v>130752842</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490655</v>
+        <v>490660</v>
       </c>
       <c r="R33" t="n">
-        <v>6763493</v>
+        <v>6763462</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130753455</v>
+        <v>130789513</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4190,39 +4190,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490770</v>
+        <v>490777</v>
       </c>
       <c r="R34" t="n">
-        <v>6763512</v>
+        <v>6763210</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4254,7 +4249,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4264,12 +4259,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Bild 4 till 6</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4278,18 +4268,19 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -4403,7 +4394,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130789513</v>
+        <v>130789508</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4438,10 +4429,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490777</v>
+        <v>490700</v>
       </c>
       <c r="R36" t="n">
-        <v>6763210</v>
+        <v>6763430</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4473,7 +4464,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4483,7 +4474,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4511,10 +4502,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130789508</v>
+        <v>130753455</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4522,34 +4513,39 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490700</v>
+        <v>490770</v>
       </c>
       <c r="R37" t="n">
-        <v>6763430</v>
+        <v>6763512</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4581,7 +4577,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4591,7 +4587,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Bild 4 till 6</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4600,19 +4601,18 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130815610</v>
+        <v>130815695</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5079,37 +5079,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490831</v>
+        <v>490815</v>
       </c>
       <c r="R42" t="n">
-        <v>6763410</v>
+        <v>6763446</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5153,7 +5158,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5180,10 +5185,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130815695</v>
+        <v>130815610</v>
       </c>
       <c r="B43" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5191,42 +5196,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490815</v>
+        <v>490831</v>
       </c>
       <c r="R43" t="n">
-        <v>6763446</v>
+        <v>6763410</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>3 bilder på tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5740,10 +5740,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130814260</v>
+        <v>130815999</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5751,42 +5751,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490982</v>
+        <v>490722</v>
       </c>
       <c r="R48" t="n">
-        <v>6763304</v>
+        <v>6763404</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5830,7 +5825,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>4 bilder på tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder tall</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5857,10 +5852,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130815999</v>
+        <v>130814260</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5868,37 +5863,42 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490722</v>
+        <v>490982</v>
       </c>
       <c r="R49" t="n">
-        <v>6763404</v>
+        <v>6763304</v>
       </c>
       <c r="S49" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder tall</t>
+          <t>4 bilder på tall</t>
         </is>
       </c>
       <c r="AD49" t="b">

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130789503</v>
+        <v>130789515</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>490685</v>
+        <v>490723</v>
       </c>
       <c r="R2" t="n">
-        <v>6763486</v>
+        <v>6763501</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +768,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -769,7 +777,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -788,10 +795,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130789515</v>
+        <v>130789503</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,42 +806,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490723</v>
+        <v>490685</v>
       </c>
       <c r="R3" t="n">
-        <v>6763501</v>
+        <v>6763486</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +865,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -876,7 +875,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -885,6 +884,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130752899</v>
+        <v>130752197</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -934,14 +934,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490652</v>
+        <v>490715</v>
       </c>
       <c r="R4" t="n">
-        <v>6763503</v>
+        <v>6763290</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130752197</v>
+        <v>130752899</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1041,14 +1041,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490715</v>
+        <v>490652</v>
       </c>
       <c r="R5" t="n">
-        <v>6763290</v>
+        <v>6763503</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130789501</v>
+        <v>130752192</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1240,34 +1240,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490713</v>
+        <v>490715</v>
       </c>
       <c r="R7" t="n">
-        <v>6763507</v>
+        <v>6763290</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,7 +1304,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1309,7 +1314,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1318,26 +1323,25 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789509</v>
+        <v>130789501</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1372,10 +1376,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490693</v>
+        <v>490713</v>
       </c>
       <c r="R8" t="n">
-        <v>6763417</v>
+        <v>6763507</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1411,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1421,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1445,10 +1449,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130752192</v>
+        <v>130789509</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1456,39 +1460,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490715</v>
+        <v>490693</v>
       </c>
       <c r="R9" t="n">
-        <v>6763290</v>
+        <v>6763417</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1520,7 +1519,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1530,7 +1529,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1539,18 +1538,19 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130789514</v>
+        <v>130789512</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2571,10 +2571,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490800</v>
+        <v>490686</v>
       </c>
       <c r="R19" t="n">
-        <v>6763195</v>
+        <v>6763382</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2644,7 +2644,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130789512</v>
+        <v>130752039</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2675,14 +2675,14 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490686</v>
+        <v>490739</v>
       </c>
       <c r="R20" t="n">
-        <v>6763382</v>
+        <v>6763241</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,26 +2733,25 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130752039</v>
+        <v>130789514</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2783,14 +2782,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490739</v>
+        <v>490800</v>
       </c>
       <c r="R21" t="n">
-        <v>6763241</v>
+        <v>6763195</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2822,7 +2821,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2832,7 +2831,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2841,28 +2840,29 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130789502</v>
+        <v>130753344</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2870,34 +2870,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490712</v>
+        <v>490761</v>
       </c>
       <c r="R22" t="n">
-        <v>6763506</v>
+        <v>6763503</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2929,7 +2934,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2939,7 +2944,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>3 Bilder</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2948,29 +2958,28 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130753344</v>
+        <v>130789502</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2978,39 +2987,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>490761</v>
+        <v>490712</v>
       </c>
       <c r="R23" t="n">
-        <v>6763503</v>
+        <v>6763506</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3042,7 +3046,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3052,12 +3056,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>3 Bilder</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3066,18 +3065,19 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130789507</v>
+        <v>130752001</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3222,14 +3222,14 @@
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490706</v>
+        <v>490746</v>
       </c>
       <c r="R25" t="n">
-        <v>6763438</v>
+        <v>6763219</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3280,26 +3280,25 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130752001</v>
+        <v>130789507</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3330,14 +3329,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490746</v>
+        <v>490706</v>
       </c>
       <c r="R26" t="n">
-        <v>6763219</v>
+        <v>6763438</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3369,7 +3368,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3379,7 +3378,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3388,25 +3387,26 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130752569</v>
+        <v>130751938</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3437,14 +3437,14 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490661</v>
+        <v>490749</v>
       </c>
       <c r="R27" t="n">
-        <v>6763445</v>
+        <v>6763201</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130751938</v>
+        <v>130752569</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3544,14 +3544,14 @@
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490749</v>
+        <v>490661</v>
       </c>
       <c r="R28" t="n">
-        <v>6763201</v>
+        <v>6763445</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130789513</v>
+        <v>130789508</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490777</v>
+        <v>490700</v>
       </c>
       <c r="R34" t="n">
-        <v>6763210</v>
+        <v>6763430</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130753055</v>
+        <v>130789513</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4322,10 +4322,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490658</v>
+        <v>490777</v>
       </c>
       <c r="R35" t="n">
-        <v>6763532</v>
+        <v>6763210</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4376,25 +4376,26 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130789508</v>
+        <v>130753055</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4429,10 +4430,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490700</v>
+        <v>490658</v>
       </c>
       <c r="R36" t="n">
-        <v>6763430</v>
+        <v>6763532</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4464,7 +4465,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4474,7 +4475,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4483,19 +4484,18 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130815695</v>
+        <v>130815610</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5079,42 +5079,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490815</v>
+        <v>490831</v>
       </c>
       <c r="R42" t="n">
-        <v>6763446</v>
+        <v>6763410</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5158,7 +5153,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>3 bilder på tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5185,7 +5180,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130815610</v>
+        <v>130807544</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5216,14 +5211,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490831</v>
+        <v>491106</v>
       </c>
       <c r="R43" t="n">
-        <v>6763410</v>
+        <v>6763223</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5270,7 +5265,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
+          <t>2 bilder på gran vid basväg samt tall</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5297,10 +5292,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130807544</v>
+        <v>130815695</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5308,37 +5303,42 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>491106</v>
+        <v>490815</v>
       </c>
       <c r="R44" t="n">
-        <v>6763223</v>
+        <v>6763446</v>
       </c>
       <c r="S44" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2 bilder på gran vid basväg samt tall</t>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD44" t="b">

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130789515</v>
+        <v>130789503</v>
       </c>
       <c r="B2" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,42 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>490723</v>
+        <v>490685</v>
       </c>
       <c r="R2" t="n">
-        <v>6763501</v>
+        <v>6763486</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,6 +769,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -795,10 +788,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130789503</v>
+        <v>130789515</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,34 +799,42 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490685</v>
+        <v>490723</v>
       </c>
       <c r="R3" t="n">
-        <v>6763486</v>
+        <v>6763501</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,7 +866,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -875,7 +876,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,7 +885,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130752192</v>
+        <v>130789501</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1240,39 +1240,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490715</v>
+        <v>490713</v>
       </c>
       <c r="R7" t="n">
-        <v>6763290</v>
+        <v>6763507</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1304,7 +1299,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1314,7 +1309,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1323,25 +1318,26 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789501</v>
+        <v>130789509</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1376,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490713</v>
+        <v>490693</v>
       </c>
       <c r="R8" t="n">
-        <v>6763507</v>
+        <v>6763417</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1411,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1421,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1449,10 +1445,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130789509</v>
+        <v>130752192</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,34 +1456,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490693</v>
+        <v>490715</v>
       </c>
       <c r="R9" t="n">
-        <v>6763417</v>
+        <v>6763290</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1519,7 +1520,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1529,7 +1530,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1538,29 +1539,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130752527</v>
+        <v>130789462</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1568,34 +1568,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490673</v>
+        <v>490705</v>
       </c>
       <c r="R10" t="n">
-        <v>6763435</v>
+        <v>6763439</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1627,7 +1635,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1637,7 +1645,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Äldre ring hack på tall</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1652,22 +1665,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789462</v>
+        <v>130752527</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1675,42 +1688,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490705</v>
+        <v>490673</v>
       </c>
       <c r="R11" t="n">
-        <v>6763439</v>
+        <v>6763435</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1742,7 +1747,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1752,12 +1757,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Äldre ring hack på tall</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1772,12 +1772,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130752453</v>
+        <v>130789514</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490682</v>
+        <v>490800</v>
       </c>
       <c r="R18" t="n">
-        <v>6763392</v>
+        <v>6763195</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2518,25 +2518,26 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130789512</v>
+        <v>130752453</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2571,10 +2572,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490686</v>
+        <v>490682</v>
       </c>
       <c r="R19" t="n">
-        <v>6763382</v>
+        <v>6763392</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2606,7 +2607,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2616,7 +2617,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2625,26 +2626,25 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130752039</v>
+        <v>130789512</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2675,14 +2675,14 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490739</v>
+        <v>490686</v>
       </c>
       <c r="R20" t="n">
-        <v>6763241</v>
+        <v>6763382</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,25 +2733,26 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130789514</v>
+        <v>130752039</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2782,14 +2783,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490800</v>
+        <v>490739</v>
       </c>
       <c r="R21" t="n">
-        <v>6763195</v>
+        <v>6763241</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2821,7 +2822,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2831,7 +2832,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,29 +2841,28 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130753344</v>
+        <v>130789502</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2870,39 +2870,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490761</v>
+        <v>490712</v>
       </c>
       <c r="R22" t="n">
-        <v>6763503</v>
+        <v>6763506</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2934,7 +2929,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2944,12 +2939,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>3 Bilder</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2958,28 +2948,29 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130789502</v>
+        <v>130753344</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2987,34 +2978,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>490712</v>
+        <v>490761</v>
       </c>
       <c r="R23" t="n">
-        <v>6763506</v>
+        <v>6763503</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3046,7 +3042,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3056,7 +3052,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>3 Bilder</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3065,19 +3066,18 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130751938</v>
+        <v>130752569</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3437,14 +3437,14 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490749</v>
+        <v>490661</v>
       </c>
       <c r="R27" t="n">
-        <v>6763201</v>
+        <v>6763445</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130752569</v>
+        <v>130751938</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3544,14 +3544,14 @@
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490661</v>
+        <v>490749</v>
       </c>
       <c r="R28" t="n">
-        <v>6763445</v>
+        <v>6763201</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130789508</v>
+        <v>130789513</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490700</v>
+        <v>490777</v>
       </c>
       <c r="R34" t="n">
-        <v>6763430</v>
+        <v>6763210</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130789513</v>
+        <v>130753055</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4322,10 +4322,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490777</v>
+        <v>490658</v>
       </c>
       <c r="R35" t="n">
-        <v>6763210</v>
+        <v>6763532</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4376,26 +4376,25 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130753055</v>
+        <v>130789508</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4430,10 +4429,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490658</v>
+        <v>490700</v>
       </c>
       <c r="R36" t="n">
-        <v>6763532</v>
+        <v>6763430</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4465,7 +4464,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4475,7 +4474,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4484,18 +4483,19 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
@@ -5409,10 +5409,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130807362</v>
+        <v>130815959</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5420,34 +5420,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>490990</v>
+        <v>490727</v>
       </c>
       <c r="R45" t="n">
-        <v>6763195</v>
+        <v>6763422</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5490,6 +5495,11 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5516,10 +5526,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130815959</v>
+        <v>130807362</v>
       </c>
       <c r="B46" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5527,39 +5537,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490727</v>
+        <v>490990</v>
       </c>
       <c r="R46" t="n">
-        <v>6763422</v>
+        <v>6763195</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5602,11 +5607,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD46" t="b">

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -1229,10 +1229,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130789501</v>
+        <v>130752192</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1240,34 +1240,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490713</v>
+        <v>490715</v>
       </c>
       <c r="R7" t="n">
-        <v>6763507</v>
+        <v>6763290</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,7 +1304,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1309,7 +1314,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1318,26 +1323,25 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789509</v>
+        <v>130789501</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1372,10 +1376,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490693</v>
+        <v>490713</v>
       </c>
       <c r="R8" t="n">
-        <v>6763417</v>
+        <v>6763507</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1411,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1421,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1445,10 +1449,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130752192</v>
+        <v>130789509</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1456,39 +1460,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490715</v>
+        <v>490693</v>
       </c>
       <c r="R9" t="n">
-        <v>6763290</v>
+        <v>6763417</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1520,7 +1519,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1530,7 +1529,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1539,28 +1538,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130789462</v>
+        <v>130752527</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1568,42 +1568,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490705</v>
+        <v>490673</v>
       </c>
       <c r="R10" t="n">
-        <v>6763439</v>
+        <v>6763435</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1635,7 +1627,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1645,12 +1637,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Äldre ring hack på tall</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1665,22 +1652,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130752527</v>
+        <v>130789462</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1688,34 +1675,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490673</v>
+        <v>490705</v>
       </c>
       <c r="R11" t="n">
-        <v>6763435</v>
+        <v>6763439</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1747,7 +1742,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1757,7 +1752,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Äldre ring hack på tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1772,12 +1772,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
@@ -5409,10 +5409,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130815959</v>
+        <v>130807362</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5420,39 +5420,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>490727</v>
+        <v>490990</v>
       </c>
       <c r="R45" t="n">
-        <v>6763422</v>
+        <v>6763195</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5495,11 +5490,6 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5526,10 +5516,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130807362</v>
+        <v>130815959</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5537,34 +5527,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490990</v>
+        <v>490727</v>
       </c>
       <c r="R46" t="n">
-        <v>6763195</v>
+        <v>6763422</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5607,6 +5602,11 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5740,10 +5740,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130815999</v>
+        <v>130814260</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5751,37 +5751,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490722</v>
+        <v>490982</v>
       </c>
       <c r="R48" t="n">
-        <v>6763404</v>
+        <v>6763304</v>
       </c>
       <c r="S48" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5825,7 +5830,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder tall</t>
+          <t>4 bilder på tall</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5852,10 +5857,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130814260</v>
+        <v>130815999</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5863,42 +5868,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490982</v>
+        <v>490722</v>
       </c>
       <c r="R49" t="n">
-        <v>6763304</v>
+        <v>6763404</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>4 bilder på tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder tall</t>
         </is>
       </c>
       <c r="AD49" t="b">

--- a/artfynd/A 61770-2025 artfynd.xlsx
+++ b/artfynd/A 61770-2025 artfynd.xlsx
@@ -4730,7 +4730,7 @@
         <v>130807229</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130815610</v>
+        <v>130815695</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5079,37 +5079,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490831</v>
+        <v>490815</v>
       </c>
       <c r="R42" t="n">
-        <v>6763410</v>
+        <v>6763446</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5153,7 +5158,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5180,10 +5185,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130807544</v>
+        <v>130815610</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5211,14 +5216,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>491106</v>
+        <v>490831</v>
       </c>
       <c r="R43" t="n">
-        <v>6763223</v>
+        <v>6763410</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5265,7 +5270,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2 bilder på gran vid basväg samt tall</t>
+          <t>Måttligt i en radie av ca 50 meter. 2 bilder på tall och gran</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5292,10 +5297,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130815695</v>
+        <v>130807544</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5303,42 +5308,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490815</v>
+        <v>491106</v>
       </c>
       <c r="R44" t="n">
-        <v>6763446</v>
+        <v>6763223</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>3 bilder på tall</t>
+          <t>2 bilder på gran vid basväg samt tall</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5409,10 +5409,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130807362</v>
+        <v>130815959</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5420,34 +5420,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Truppan, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>490990</v>
+        <v>490727</v>
       </c>
       <c r="R45" t="n">
-        <v>6763195</v>
+        <v>6763422</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5490,6 +5495,11 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>11:46</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5516,10 +5526,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130815959</v>
+        <v>130807362</v>
       </c>
       <c r="B46" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5527,39 +5537,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Truppan, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490727</v>
+        <v>490990</v>
       </c>
       <c r="R46" t="n">
-        <v>6763422</v>
+        <v>6763195</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5602,11 +5607,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>11:46</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>3 bilder på tall</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5636,7 +5636,7 @@
         <v>130815712</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>130815999</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>130811340</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>130813058</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
